--- a/result/WEWGS_SNP.xlsx
+++ b/result/WEWGS_SNP.xlsx
@@ -9710,8 +9710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/result/WEWGS_SNP.xlsx
+++ b/result/WEWGS_SNP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="580" windowWidth="38400" windowHeight="23540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="General Comparison" sheetId="5" r:id="rId1"/>
@@ -9800,8 +9800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24692,22 +24692,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL132"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AT19" sqref="AT19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AR24" sqref="AR24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32" style="1"/>
-    <col min="2" max="2" width="32" style="14"/>
-    <col min="6" max="6" width="32" style="1"/>
-    <col min="9" max="9" width="32" style="39"/>
-    <col min="13" max="13" width="32" style="39"/>
-    <col min="17" max="17" width="32" style="39"/>
-    <col min="18" max="18" width="32" style="12"/>
-    <col min="29" max="29" width="32" style="39"/>
-    <col min="33" max="33" width="32" style="39"/>
-    <col min="34" max="34" width="32" style="12"/>
+    <col min="1" max="1" width="13.33203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="14"/>
+    <col min="6" max="6" width="13.33203125" style="1"/>
+    <col min="9" max="9" width="13.33203125" style="39"/>
+    <col min="13" max="13" width="13.33203125" style="39"/>
+    <col min="17" max="17" width="13.33203125" style="39"/>
+    <col min="18" max="18" width="13.33203125" style="12"/>
+    <col min="29" max="29" width="13.33203125" style="39"/>
+    <col min="33" max="33" width="13.33203125" style="39"/>
+    <col min="34" max="34" width="13.33203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
@@ -24801,7 +24801,7 @@
       <c r="BB2" s="53"/>
       <c r="BC2" s="53"/>
     </row>
-    <row r="3" spans="1:64" ht="30">
+    <row r="3" spans="1:64" ht="17">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -41231,6 +41231,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="BH3:BL3"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AD2:AF2"/>
@@ -41239,12 +41245,6 @@
     <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -41260,8 +41260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EZ106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BB6" sqref="BB6:BB7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -57716,6 +57716,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
     <mergeCell ref="AX2:BC2"/>
     <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="Z2:AB2"/>
@@ -57724,12 +57730,6 @@
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
